--- a/Spatial/PDFs/figure1_zMIs_AD_15_RANOVA.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_15_RANOVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9980AB5-D212-4311-8C45-9C70ECD1FEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C095A67-0C7D-4035-B0F9-C269B17BC430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{8B0BB32C-9472-496F-BBCA-9BAE40A69996}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{8B0BB32C-9472-496F-BBCA-9BAE40A69996}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,15 +435,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -501,7 +501,7 @@
         <v>2.7948770207665765E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -530,7 +530,7 @@
         <v>0.34012449753324281</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -559,7 +559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -588,7 +588,7 @@
         <v>1.5132036298681836E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -617,7 +617,7 @@
         <v>0.1356290812234483</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -657,7 +657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -669,7 +669,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Spatial/PDFs/figure1_zMIs_AD_15_RANOVA.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_15_RANOVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDB08B36-DC47-4F8E-9FC7-4A64771C75C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F18D3F9D-BC1F-4582-91D9-971EC690DA06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{E1464744-CAEF-4B27-9799-6CDA07B57610}"/>
   </bookViews>

--- a/Spatial/PDFs/figure1_zMIs_AD_15_RANOVA.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_15_RANOVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F18D3F9D-BC1F-4582-91D9-971EC690DA06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2404D5C8-909F-4E09-AE51-CD9AEF300C96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{E1464744-CAEF-4B27-9799-6CDA07B57610}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="19185" windowHeight="10200" xr2:uid="{E1464744-CAEF-4B27-9799-6CDA07B57610}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
